--- a/ArticleManage/main_working_folder/output_folders/Data 92 Impregnation of Chitosan onto/Data92_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 92 Impregnation of Chitosan onto/Data92_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="0.12" sheetId="1" r:id="rId1"/>
-    <sheet name="0.76" sheetId="2" r:id="rId4"/>
-    <sheet name="AC" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 0.12  0-1-100-300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 0.76  0-1-100-300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC  0-1-100-300 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -99,7 +99,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.12</a:t>
+              <a:t>Izoterma adsorpcji probki 0.12 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -158,12 +158,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.12'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 0.12  0-1-100-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.12'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 0.12  0-1-100-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -176,6 +176,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -245,6 +247,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -409,7 +413,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.76</a:t>
+              <a:t>Izoterma adsorpcji probki 0.76 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -468,12 +472,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.76'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 0.76  0-1-100-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.76'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 0.76  0-1-100-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -486,6 +490,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -555,6 +561,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -719,7 +727,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC</a:t>
+              <a:t>Izoterma adsorpcji probki AC z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -778,12 +786,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AC!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 AC  0-1-100-300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AC!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 AC  0-1-100-300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,6 +804,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -865,6 +875,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 92 Impregnation of Chitosan onto/Data92_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 92 Impregnation of Chitosan onto/Data92_all_graphs_excel.xlsx
@@ -3377,7 +3377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3398,397 +3398,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0263</v>
+        <v>0.0045</v>
       </c>
       <c r="B3" s="0">
-        <v>179.1078</v>
+        <v>147.4041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0188</v>
+        <v>0.0182</v>
       </c>
       <c r="B4" s="0">
-        <v>172.1405</v>
+        <v>169.5601</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0452</v>
+        <v>0.0263</v>
       </c>
       <c r="B5" s="0">
-        <v>185.2823</v>
+        <v>177.1315</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.064</v>
+        <v>0.0372</v>
       </c>
       <c r="B6" s="0">
-        <v>191.2539</v>
+        <v>182.7385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0848</v>
+        <v>0.0472</v>
       </c>
       <c r="B7" s="0">
-        <v>195.6414</v>
+        <v>186.3823</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1055</v>
+        <v>0.0763</v>
       </c>
       <c r="B8" s="0">
-        <v>198.8619</v>
+        <v>194.2282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1262</v>
+        <v>0.1035</v>
       </c>
       <c r="B9" s="0">
-        <v>201.6499</v>
+        <v>198.4282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.147</v>
+        <v>0.1344</v>
       </c>
       <c r="B10" s="0">
-        <v>203.1403</v>
+        <v>201.7856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1677</v>
+        <v>0.1617</v>
       </c>
       <c r="B11" s="0">
-        <v>204.9959</v>
+        <v>204.583</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1885</v>
+        <v>0.188</v>
       </c>
       <c r="B12" s="0">
-        <v>206.2781</v>
+        <v>206.2586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2092</v>
+        <v>0.2144</v>
       </c>
       <c r="B13" s="0">
-        <v>207.8338</v>
+        <v>207.9343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2299</v>
+        <v>0.2398</v>
       </c>
       <c r="B14" s="0">
-        <v>209.2042</v>
+        <v>209.3297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2507</v>
+        <v>0.2643</v>
       </c>
       <c r="B15" s="0">
-        <v>210.0717</v>
+        <v>210.1643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2714</v>
+        <v>0.2925</v>
       </c>
       <c r="B16" s="0">
-        <v>210.6746</v>
+        <v>211.5589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2921</v>
+        <v>0.317</v>
       </c>
       <c r="B17" s="0">
-        <v>211.7672</v>
+        <v>212.6741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3129</v>
+        <v>0.3569</v>
       </c>
       <c r="B18" s="0">
-        <v>212.3215</v>
+        <v>214.3459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3336</v>
+        <v>0.4105</v>
       </c>
       <c r="B19" s="0">
-        <v>213.5684</v>
+        <v>216.0139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3544</v>
+        <v>0.4623</v>
       </c>
       <c r="B20" s="0">
-        <v>214.3831</v>
+        <v>218.5239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3751</v>
+        <v>0.5141</v>
       </c>
       <c r="B21" s="0">
-        <v>215.0918</v>
+        <v>219.9119</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3958</v>
+        <v>0.5622</v>
       </c>
       <c r="B22" s="0">
-        <v>215.9859</v>
+        <v>221.3009</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4166</v>
+        <v>0.6104</v>
       </c>
       <c r="B23" s="0">
-        <v>216.2976</v>
+        <v>223.5315</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4373</v>
+        <v>0.6594</v>
       </c>
       <c r="B24" s="0">
-        <v>217.3504</v>
+        <v>225.4812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4581</v>
+        <v>0.7075</v>
       </c>
       <c r="B25" s="0">
-        <v>217.9622</v>
+        <v>227.7118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4788</v>
+        <v>0.7557</v>
       </c>
       <c r="B26" s="0">
-        <v>218.5562</v>
+        <v>230.2228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4995</v>
+        <v>0.8011</v>
       </c>
       <c r="B27" s="0">
-        <v>219.265</v>
+        <v>233.0151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5203</v>
+        <v>0.8501</v>
       </c>
       <c r="B28" s="0">
-        <v>219.8414</v>
+        <v>236.6479</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.541</v>
+        <v>0.9028</v>
       </c>
       <c r="B29" s="0">
-        <v>220.709</v>
+        <v>240.5602</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5617</v>
+        <v>0.951</v>
       </c>
       <c r="B30" s="0">
-        <v>221.206</v>
+        <v>245.0348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5825</v>
+        <v>0.9755</v>
       </c>
       <c r="B31" s="0">
-        <v>222.2324</v>
+        <v>247.5525</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6032</v>
+        <v>0.9909</v>
       </c>
       <c r="B32" s="0">
-        <v>222.7559</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.624</v>
-      </c>
-      <c r="B33" s="0">
-        <v>223.8087</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6447</v>
-      </c>
-      <c r="B34" s="0">
-        <v>224.5969</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6654</v>
-      </c>
-      <c r="B35" s="0">
-        <v>225.4644</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6862</v>
-      </c>
-      <c r="B36" s="0">
-        <v>226.5437</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7069</v>
-      </c>
-      <c r="B37" s="0">
-        <v>227.3054</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7276</v>
-      </c>
-      <c r="B38" s="0">
-        <v>228.6229</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7484</v>
-      </c>
-      <c r="B39" s="0">
-        <v>229.5169</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7691</v>
-      </c>
-      <c r="B40" s="0">
-        <v>230.8256</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.7899</v>
-      </c>
-      <c r="B41" s="0">
-        <v>232.1783</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8106</v>
-      </c>
-      <c r="B42" s="0">
-        <v>233.39</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8313</v>
-      </c>
-      <c r="B43" s="0">
-        <v>234.9456</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8521</v>
-      </c>
-      <c r="B44" s="0">
-        <v>236.2631</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8728</v>
-      </c>
-      <c r="B45" s="0">
-        <v>238.0305</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8936</v>
-      </c>
-      <c r="B46" s="0">
-        <v>239.6391</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9143</v>
-      </c>
-      <c r="B47" s="0">
-        <v>241.583</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.935</v>
-      </c>
-      <c r="B48" s="0">
-        <v>243.6768</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9511</v>
-      </c>
-      <c r="B49" s="0">
-        <v>244.1266</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9709</v>
-      </c>
-      <c r="B50" s="0">
-        <v>247.5537</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9909</v>
-      </c>
-      <c r="B51" s="0">
-        <v>249.2312</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>249.7922</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3797,7 +3645,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3818,301 +3666,253 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.4605</v>
+        <v>0.0045</v>
       </c>
       <c r="B3" s="0">
-        <v>237.8792</v>
+        <v>170.9665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.4877</v>
+        <v>0.0064</v>
       </c>
       <c r="B4" s="0">
-        <v>238.4326</v>
+        <v>180.5031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.5114</v>
+        <v>0.0163</v>
       </c>
       <c r="B5" s="0">
-        <v>238.987</v>
+        <v>194.2451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.535</v>
+        <v>0.0254</v>
       </c>
       <c r="B6" s="0">
-        <v>240.1024</v>
+        <v>200.6941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.5613</v>
+        <v>0.0381</v>
       </c>
       <c r="B7" s="0">
-        <v>241.4975</v>
+        <v>206.3007</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.5849</v>
+        <v>0.0481</v>
       </c>
       <c r="B8" s="0">
-        <v>242.3324</v>
+        <v>209.6639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.6094</v>
+        <v>0.0745</v>
       </c>
       <c r="B9" s="0">
-        <v>243.4476</v>
+        <v>215.8276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.634</v>
+        <v>0.1081</v>
       </c>
       <c r="B10" s="0">
-        <v>244.2822</v>
+        <v>220.5868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.6594</v>
+        <v>0.1353</v>
       </c>
       <c r="B11" s="0">
-        <v>245.3971</v>
+        <v>223.1037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.683</v>
+        <v>0.1635</v>
       </c>
       <c r="B12" s="0">
-        <v>246.232</v>
+        <v>224.7788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7084</v>
+        <v>0.1889</v>
       </c>
       <c r="B13" s="0">
-        <v>247.3469</v>
+        <v>227.2962</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.7566</v>
+        <v>0.2153</v>
       </c>
       <c r="B14" s="0">
-        <v>249.8579</v>
+        <v>228.1304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8002</v>
+        <v>0.2425</v>
       </c>
       <c r="B15" s="0">
-        <v>251.8092</v>
+        <v>229.5252</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.8529</v>
+        <v>0.267</v>
       </c>
       <c r="B16" s="0">
-        <v>255.441</v>
+        <v>230.9209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.8983</v>
+        <v>0.2916</v>
       </c>
       <c r="B17" s="0">
-        <v>258.5138</v>
+        <v>232.036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9528</v>
+        <v>0.3179</v>
       </c>
       <c r="B18" s="0">
-        <v>263.5476</v>
+        <v>232.8702</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9746</v>
+        <v>0.3624</v>
       </c>
       <c r="B19" s="0">
-        <v>266.3465</v>
+        <v>235.1017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9909</v>
+        <v>0.4105</v>
       </c>
       <c r="B20" s="0">
-        <v>269.4275</v>
+        <v>237.0517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4323</v>
+        <v>0.4614</v>
       </c>
       <c r="B21" s="0">
-        <v>236.7651</v>
+        <v>238.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4114</v>
+        <v>0.5114</v>
       </c>
       <c r="B22" s="0">
-        <v>236.4905</v>
+        <v>239.8285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3606</v>
+        <v>0.5595</v>
       </c>
       <c r="B23" s="0">
-        <v>234.8217</v>
+        <v>241.7785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3188</v>
+        <v>0.6104</v>
       </c>
       <c r="B24" s="0">
-        <v>233.1504</v>
+        <v>243.4473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2934</v>
+        <v>0.6594</v>
       </c>
       <c r="B25" s="0">
-        <v>231.755</v>
+        <v>245.3971</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.2679</v>
+        <v>0.7075</v>
       </c>
       <c r="B26" s="0">
-        <v>231.2011</v>
+        <v>247.6276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.2425</v>
+        <v>0.7566</v>
       </c>
       <c r="B27" s="0">
-        <v>230.0863</v>
+        <v>250.1384</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.2162</v>
+        <v>0.8029</v>
       </c>
       <c r="B28" s="0">
-        <v>228.6911</v>
+        <v>252.65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.1916</v>
+        <v>0.8529</v>
       </c>
       <c r="B29" s="0">
-        <v>227.2955</v>
+        <v>255.7215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.1644</v>
+        <v>0.8983</v>
       </c>
       <c r="B30" s="0">
-        <v>225.6201</v>
+        <v>258.7943</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.1362</v>
+        <v>0.95</v>
       </c>
       <c r="B31" s="0">
-        <v>223.3839</v>
+        <v>262.7069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.1099</v>
+        <v>0.9737</v>
       </c>
       <c r="B32" s="0">
-        <v>220.3058</v>
+        <v>265.5053</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0772</v>
+        <v>0.9927</v>
       </c>
       <c r="B33" s="0">
-        <v>215.2659</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.0518</v>
-      </c>
-      <c r="B34" s="0">
-        <v>209.6629</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.04</v>
-      </c>
-      <c r="B35" s="0">
-        <v>205.7391</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.0282</v>
-      </c>
-      <c r="B36" s="0">
-        <v>201.2544</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.02</v>
-      </c>
-      <c r="B37" s="0">
-        <v>194.244</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.01</v>
-      </c>
-      <c r="B38" s="0">
-        <v>181.0631</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.0045</v>
-      </c>
-      <c r="B39" s="0">
-        <v>170.9665</v>
-      </c>
-    </row>
-    <row r="40"/>
+        <v>268.866</v>
+      </c>
+    </row>
+    <row r="34"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 92 Impregnation of Chitosan onto/Data92_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 92 Impregnation of Chitosan onto/Data92_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 0.12  0-1-100-300 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 0.76  0-1-100-300 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 AC  0-1-100-300 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 0.12  0&amp;1&amp;100&amp;300 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 0.76  0&amp;1&amp;100&amp;300 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 AC  0&amp;1&amp;100&amp;300 " sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -158,12 +158,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 0.12  0-1-100-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 0.12  0&amp;1&amp;100&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 0.12  0-1-100-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 0.12  0&amp;1&amp;100&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -472,12 +472,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 0.76  0-1-100-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 0.76  0&amp;1&amp;100&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 0.76  0-1-100-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 0.76  0&amp;1&amp;100&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -786,12 +786,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 AC  0-1-100-300 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 AC  0&amp;1&amp;100&amp;300 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 AC  0-1-100-300 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 AC  0&amp;1&amp;100&amp;300 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
